--- a/src/main/webapp/ContractImportTemplate.xlsx
+++ b/src/main/webapp/ContractImportTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>福州泛泰锡贸易有限公司</t>
   </si>
@@ -38,27 +38,6 @@
     <t>常州化工常润</t>
   </si>
   <si>
-    <t>1、交货日期如果不填写，则默认为合同日期+7天；</t>
-  </si>
-  <si>
-    <t>2、采购方全称、销售方名称必须与会员的名称完全相同；</t>
-  </si>
-  <si>
-    <t>3、仓库名称、品名全称必须与后台维护时的数据一致；</t>
-  </si>
-  <si>
-    <t>4、单价只能精确到小数位后2位数；</t>
-  </si>
-  <si>
-    <t>5、数量只能精确到小数们后4位数；</t>
-  </si>
-  <si>
-    <t>6、发票附件名称需要包含扩展名，并且所有的附件名称不能重复并且不能有中文，都需要通过FTP上传到图片服务器指定目录；如：20170801.jpg</t>
-  </si>
-  <si>
-    <t>7、合同金额的计算系统会自动通过   单价*数量=合同总额  并保留2位小数进行四舍五入</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
@@ -183,6 +162,17 @@
   </si>
   <si>
     <t>窗户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、交货日期如果不填写，则默认为合同日期+7天；
+2、采购方全称、销售方名称必须与会员的名称完全相同；
+3、仓库名称、品名全称必须与后台维护时的数据一致；
+4、单价只能精确到小数位后2位数；
+5、数量只能精确到小数们后4位数；
+6、发票附件名称需要包含扩展名，并且所有的附件名称不能重复并且不能有中文，都需要通过FTP上传到图片服务器指定目录；如：20170801.jpg
+7、合同金额的计算系统会自动通过   单价*数量=合同总额  并保留2位小数进行四舍五入
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -216,6 +206,7 @@
     <font>
       <sz val="12"/>
       <name val="Abadi MT Condensed Extra Bold"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -256,14 +247,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -541,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -558,89 +549,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="103" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43091</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43091</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43091</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43091</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <v>42993</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>42996</v>
+      </c>
+      <c r="R3" s="5">
+        <v>42997</v>
+      </c>
+      <c r="S3" s="5">
+        <v>42998</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -649,25 +728,31 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -676,25 +761,31 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -703,438 +794,168 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43091</v>
+      </c>
+      <c r="C7" s="5">
+        <v>43091</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43091</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43091</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5">
+        <v>42993</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>42996</v>
+      </c>
+      <c r="R7" s="5">
+        <v>42997</v>
+      </c>
+      <c r="S7" s="5">
+        <v>42998</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>32</v>
-      </c>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>40</v>
+      </c>
+      <c r="O8" s="3">
+        <v>200</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>43091</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43091</v>
-      </c>
-      <c r="D9" s="6">
-        <v>43091</v>
-      </c>
-      <c r="E9" s="6">
-        <v>43091</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="4">
-        <v>10000</v>
-      </c>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6">
-        <v>42993</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>42996</v>
-      </c>
-      <c r="R9" s="6">
-        <v>42997</v>
-      </c>
-      <c r="S9" s="6">
-        <v>42998</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
-        <v>2000</v>
-      </c>
-      <c r="O10" s="4">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
-        <v>3000</v>
-      </c>
-      <c r="O11" s="4">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4">
-        <v>5000</v>
-      </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6">
-        <v>43091</v>
-      </c>
-      <c r="C13" s="6">
-        <v>43091</v>
-      </c>
-      <c r="D13" s="6">
-        <v>43091</v>
-      </c>
-      <c r="E13" s="6">
-        <v>43091</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="4">
-        <v>20000</v>
-      </c>
-      <c r="O13" s="4">
-        <v>1</v>
-      </c>
-      <c r="P13" s="6">
-        <v>42993</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>42996</v>
-      </c>
-      <c r="R13" s="6">
-        <v>42997</v>
-      </c>
-      <c r="S13" s="6">
-        <v>42998</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
-        <v>40</v>
-      </c>
-      <c r="O14" s="4">
-        <v>200</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O9" s="3">
         <v>120</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
-    <mergeCell ref="W1:W7"/>
-    <mergeCell ref="V1:V7"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="A4:U4"/>
-    <mergeCell ref="A5:U5"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:U7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
